--- a/DOC/洗美/洗美开发计划.xlsx
+++ b/DOC/洗美/洗美开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、数据库结构确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、手机端界面开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,26 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6、界面处理接口开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、查询统计接口开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、PC端界面开发(报表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、预约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、工单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11、库存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,23 +102,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.1、PC-会员管理功能开发(经管平台)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.2、PC-客户管理功能开发(经管平台)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.3、PC-工时套餐管理功能开发(经管平台)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.4、PC-员工管理功能开发(经管平台)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5、PC-运营报表功能开发(经管平台)</t>
+    <t>3、数据库结构完善PD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾史强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐--工时查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐--配件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卡查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员余额信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理--工单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理--工单-客户详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理--工单-套餐详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理--工单-工时详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理--工单-配件详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营报表--应用状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营报表--营收分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营报表--客户结构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营报表--目标达成率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营报表--人员效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、查询统计接口开发及界面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、APP端运营统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9、PC端界面开发(报表)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、PC-会员管理功能开发(经管平台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、PC-工时套餐管理功能开发(经管平台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、PC-员工管理功能开发(经管平台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、PC-运营报表功能开发(经管平台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、PC-客户管理功能开发(经管平台)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +287,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +348,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -520,19 +667,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="12" width="2.5" bestFit="1" customWidth="1"/>
     <col min="13" max="28" width="3.5" bestFit="1" customWidth="1"/>
@@ -546,16 +692,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1">
         <v>4</v>
@@ -626,50 +769,40 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43307</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43307</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43311</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43311</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5">
-        <v>43311</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="9"/>
@@ -678,10 +811,14 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -699,14 +836,14 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>43312</v>
-      </c>
-      <c r="D7" s="5">
-        <v>43316</v>
+      <c r="A7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="9"/>
       <c r="J7" s="7"/>
@@ -725,16 +862,16 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>43229</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43229</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -751,16 +888,16 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5">
-        <v>43230</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43230</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -777,16 +914,16 @@
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5">
-        <v>43230</v>
-      </c>
-      <c r="D10" s="5">
-        <v>43230</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -803,15 +940,16 @@
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43227</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43227</v>
-      </c>
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -828,15 +966,16 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5">
-        <v>43228</v>
-      </c>
-      <c r="D12" s="5">
-        <v>43228</v>
-      </c>
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -853,15 +992,16 @@
       <c r="W12" s="7"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5">
-        <v>43229</v>
-      </c>
-      <c r="D13" s="5">
-        <v>43229</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -878,15 +1018,16 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5">
-        <v>43229</v>
-      </c>
-      <c r="D14" s="5">
-        <v>43229</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -903,15 +1044,16 @@
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5">
-        <v>43230</v>
-      </c>
-      <c r="D15" s="5">
-        <v>43230</v>
-      </c>
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -928,15 +1070,16 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>43231</v>
-      </c>
-      <c r="D16" s="5">
-        <v>43231</v>
-      </c>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -953,9 +1096,16 @@
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -972,9 +1122,16 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -991,9 +1148,16 @@
       <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1010,9 +1174,11 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="C20" s="5"/>
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="5"/>
+      <c r="F20" s="6"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1029,9 +1195,16 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1048,9 +1221,16 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1067,9 +1247,16 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1086,9 +1273,16 @@
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1105,15 +1299,16 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
-        <v>43234</v>
-      </c>
-      <c r="D25" s="5">
-        <v>43234</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1130,15 +1325,11 @@
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="5">
-        <v>43235</v>
-      </c>
-      <c r="D26" s="5">
-        <v>43235</v>
-      </c>
+      <c r="A26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="F26" s="8"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1155,15 +1346,16 @@
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5">
-        <v>43235</v>
-      </c>
-      <c r="D27" s="5">
-        <v>43235</v>
-      </c>
+      <c r="A27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="8"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -1179,19 +1371,8 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5">
-        <v>43236</v>
-      </c>
-      <c r="D28" s="5">
-        <v>43236</v>
-      </c>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1208,19 +1389,11 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5">
-        <v>43236</v>
-      </c>
-      <c r="D29" s="5">
-        <v>43236</v>
-      </c>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="F29" s="8"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1237,19 +1410,8 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5">
-        <v>43237</v>
-      </c>
-      <c r="D30" s="5">
-        <v>43237</v>
-      </c>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D30" s="5"/>
       <c r="F30" s="8"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1266,17 +1428,12 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5">
-        <v>43237</v>
-      </c>
-      <c r="D31" s="5">
-        <v>43237</v>
-      </c>
-      <c r="F31" s="8"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="F31" s="6"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -1293,18 +1450,11 @@
       <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5">
-        <v>43238</v>
-      </c>
-      <c r="D32" s="5">
-        <v>43241</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="F32" s="6"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -1320,78 +1470,577 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
-        <v>43241</v>
-      </c>
-      <c r="D33" s="5">
-        <v>43241</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5">
-        <v>43242</v>
-      </c>
-      <c r="D34" s="5">
-        <v>43243</v>
-      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="5">
-        <v>43244</v>
-      </c>
-      <c r="D35" s="5">
-        <v>43244</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="D42" s="5"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="D43" s="5"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="D45" s="5"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="D46" s="5"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="D47" s="5"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="D48" s="5"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5">
+        <v>43234</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43235</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5">
+        <v>43235</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
+        <v>43236</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5">
+        <v>43236</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+    </row>
+    <row r="54" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5">
+        <v>43237</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>43237</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5">
+        <v>43241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5">
+        <v>43241</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>43243</v>
+      </c>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5">
+        <v>43244</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F52:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/洗美/洗美开发计划.xlsx
+++ b/DOC/洗美/洗美开发计划.xlsx
@@ -351,9 +351,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +669,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,7 +836,7 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -862,7 +862,7 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
@@ -888,7 +888,7 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
@@ -914,7 +914,7 @@
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
@@ -940,7 +940,7 @@
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -966,7 +966,7 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
@@ -992,7 +992,7 @@
       <c r="W12" s="7"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -1018,7 +1018,7 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
@@ -1044,7 +1044,7 @@
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -1070,7 +1070,7 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
@@ -1096,7 +1096,7 @@
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
@@ -1122,7 +1122,7 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
@@ -1148,7 +1148,7 @@
       <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
@@ -1195,7 +1195,7 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
@@ -1221,7 +1221,7 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1247,7 +1247,7 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
@@ -1273,7 +1273,7 @@
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
@@ -1299,7 +1299,7 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
@@ -1325,7 +1325,7 @@
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="5"/>
@@ -1346,7 +1346,7 @@
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
@@ -1390,7 +1390,7 @@
       <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="5"/>
@@ -1429,7 +1429,7 @@
       <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C33" t="s">
@@ -1497,7 +1497,7 @@
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C34" t="s">
@@ -1862,7 +1862,7 @@
       <c r="D52" s="5">
         <v>43236</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="15"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -1888,7 +1888,7 @@
       <c r="D53" s="5">
         <v>43236</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="15"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -1914,7 +1914,7 @@
       <c r="D54" s="5">
         <v>43237</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="15"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -1937,7 +1937,7 @@
       <c r="D55" s="5">
         <v>43237</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="15"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>

--- a/DOC/洗美/洗美开发计划.xlsx
+++ b/DOC/洗美/洗美开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
